--- a/data/trans_dic/P70C2_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70C2_R_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.0477140816655295</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08101584554187782</v>
+        <v>0.08101584554187784</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.06341644548508038</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0277486932519159</v>
+        <v>0.02769728999378604</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05799397073824589</v>
+        <v>0.05573470385434676</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04757006165250453</v>
+        <v>0.04588361561022426</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07647037772974516</v>
+        <v>0.07591895622323652</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.109673091406304</v>
+        <v>0.11289652024971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08371747612190439</v>
+        <v>0.08511070941195477</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.05551479596528732</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05988020978158782</v>
+        <v>0.05988020978158783</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.05753411992671602</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03176709825390427</v>
+        <v>0.03168468741185509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03686837632700828</v>
+        <v>0.03723020514540659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04157435947720829</v>
+        <v>0.03981987042503433</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08912426640323765</v>
+        <v>0.09113854218823851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08703796919227225</v>
+        <v>0.08824630634038806</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07993186002721007</v>
+        <v>0.08047540615183077</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.1260093935603852</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1219742632010008</v>
+        <v>0.1219742632010009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1250774789752486</v>
+        <v>0.1250774789752485</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08796780588151644</v>
+        <v>0.08514828705015466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06087490271106009</v>
+        <v>0.05907523157571845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09094321143653943</v>
+        <v>0.08753475302933569</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1830473534894057</v>
+        <v>0.1851192275888411</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.244054032134006</v>
+        <v>0.2458271653929079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1739733410023425</v>
+        <v>0.1649204313028732</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09279691599229667</v>
+        <v>0.09041650244995669</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09241080635975134</v>
+        <v>0.09178608427010597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0969919957209172</v>
+        <v>0.1002094110819518</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.15270697587737</v>
+        <v>0.1503041597422784</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1475803963495032</v>
+        <v>0.1447386035779524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1387945484365769</v>
+        <v>0.1389532527406237</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.05584839189049796</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1100475051842093</v>
+        <v>0.1100475051842092</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.08292656981058182</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03329433696087491</v>
+        <v>0.03396039202267387</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08265465883817098</v>
+        <v>0.07816638122312942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0624690973012277</v>
+        <v>0.06229446900169953</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08856103067046985</v>
+        <v>0.09016992437678548</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1506074680943238</v>
+        <v>0.1452767315672966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.107453401887452</v>
+        <v>0.1047713139395052</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08438637106175469</v>
+        <v>0.08438637106175467</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.09724800673455293</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07087025461929382</v>
+        <v>0.07086010284749589</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08450170897353704</v>
+        <v>0.08429158349571733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08058115070052528</v>
+        <v>0.07950987507361572</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09948601312790832</v>
+        <v>0.1002462671906222</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1116954354379357</v>
+        <v>0.1124619086591122</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1012635281516833</v>
+        <v>0.1013608161671987</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10369</v>
+        <v>10349</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19334</v>
+        <v>18581</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33634</v>
+        <v>32442</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28574</v>
+        <v>28368</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36563</v>
+        <v>37638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59192</v>
+        <v>60177</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10003</v>
+        <v>9977</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9992</v>
+        <v>10090</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24359</v>
+        <v>23331</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28064</v>
+        <v>28698</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23590</v>
+        <v>23917</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46833</v>
+        <v>47152</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23716</v>
+        <v>22956</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4929</v>
+        <v>4783</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31881</v>
+        <v>30686</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>49349</v>
+        <v>49908</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19759</v>
+        <v>19903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>60988</v>
+        <v>57815</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>57032</v>
+        <v>55569</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43696</v>
+        <v>43401</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>105472</v>
+        <v>108971</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93851</v>
+        <v>92375</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>69783</v>
+        <v>68439</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>150929</v>
+        <v>151102</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10261</v>
+        <v>10466</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25434</v>
+        <v>24053</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38475</v>
+        <v>38367</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27294</v>
+        <v>27790</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>46343</v>
+        <v>44703</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66181</v>
+        <v>64529</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>133302</v>
+        <v>133283</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>123874</v>
+        <v>123565</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>269693</v>
+        <v>266108</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>187126</v>
+        <v>188556</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>163738</v>
+        <v>164861</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>338914</v>
+        <v>339240</v>
       </c>
     </row>
     <row r="28">
